--- a/biology/Botanique/Liste_des_forêts_des_Yvelines/Liste_des_forêts_des_Yvelines.xlsx
+++ b/biology/Botanique/Liste_des_forêts_des_Yvelines/Liste_des_forêts_des_Yvelines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_des_Yvelines</t>
+          <t>Liste_des_forêts_des_Yvelines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts des Yvelines couvrent plus de 68 000 hectares, soit environ 30 % de la surface totale du département, ce qui en fait le département le plus boisé d'Île-de-France. Parmi elles, on compte 24 000 hectares de forêts domaniales gérées par l'Office national des forêts (ONF, région Île-de-France - Nord-Ouest), 1500 hectares de forêts régionales et 1300 hectares de forêts départementales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts des Yvelines couvrent plus de 68 000 hectares, soit environ 30 % de la surface totale du département, ce qui en fait le département le plus boisé d'Île-de-France. Parmi elles, on compte 24 000 hectares de forêts domaniales gérées par l'Office national des forêts (ONF, région Île-de-France - Nord-Ouest), 1500 hectares de forêts régionales et 1300 hectares de forêts départementales.
 Ces forêts sont pour la plupart les reliques d'un ensemble plus vaste, la « forêt de l'Yveline », qui s’étendait de Paris à Rambouillet. Durant l'antiquité, elle séparait deux peuples gaulois, les Carnutes et les Parisii respectivement installés autour d'Autricum et de Lutèce.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_des_Yvelines</t>
+          <t>Liste_des_forêts_des_Yvelines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Forêts domaniales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'office national des forêts gère treize forêts domaniales qui s'étendent en partie ou en totalité dans le territoire des Yvelines.
 Forêt de Rambouillet, 20 000 ha dont 14 550 ha domaniaux, Rambouillet, Poigny-la-Forêt, Saint-Léger-en-Yvelines, Gambaiseuil, Les Bréviaires, Clairefontaine-en-Yvelines ;
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_des_Yvelines</t>
+          <t>Liste_des_forêts_des_Yvelines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,9 +570,11 @@
           <t>Forêts régionales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'agence des espaces verts d'Île-de-France (AEV) gère sept domaines boisés dans les Yvelines, situés principalement dans le nord-ouest du département[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'agence des espaces verts d'Île-de-France (AEV) gère sept domaines boisés dans les Yvelines, situés principalement dans le nord-ouest du département.
 Forêt régionale de Rosny, 1447 hectares sur les communes de Rosny-sur-Seine, Perdreauville, Bréval, Jouy-Mauvoisin et Rolleboise ;
 Domaine régional de la Boucle de Moisson, 910 hectares sur les communes de Freneuse, Méricourt, Moisson et Mousseaux-sur-Seine ;
 Forêt régionale de Verneuil-sur-Seine, 428 hectares sur les communes des Mureaux, de Verneuil-sur-Seine et Chapet ;
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_des_Yvelines</t>
+          <t>Liste_des_forêts_des_Yvelines</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,9 +609,11 @@
           <t>Forêts départementales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le conseil général des Yvelines gère 17 domaines boisés, de taille unitaire relativement modeste[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le conseil général des Yvelines gère 17 domaines boisés, de taille unitaire relativement modeste.
 Forêt départementale d'Abbécourt, 80 ha, Orgeval ;
 Domaine de Beauplan, 30 ha, Saint-Rémy-lès-Chevreuse ; &gt; Milon-la-Chapelle ;
 Bois de Chauveaux, 23 ha, Jouy-en-Josas, Saclay ;
